--- a/backend/clearingfeed/target/classes/archiveFolder/clearingfeed (2).xlsx
+++ b/backend/clearingfeed/target/classes/archiveFolder/clearingfeed (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\citibridge\citibridge\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E62FA50-FB34-4B3A-89A9-1700F682FB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D81197-5388-4A99-8FBB-7144EE54BC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,24 +30,12 @@
     <t>987654321989</t>
   </si>
   <si>
-    <t>Anushka</t>
-  </si>
-  <si>
-    <t>876543219879</t>
-  </si>
-  <si>
     <t>Soniya</t>
   </si>
   <si>
     <t>9000.33</t>
   </si>
   <si>
-    <t>876543219878</t>
-  </si>
-  <si>
-    <t>Vaishnavi</t>
-  </si>
-  <si>
     <t>543219876578</t>
   </si>
   <si>
@@ -99,9 +87,6 @@
     <t>Riya</t>
   </si>
   <si>
-    <t>32456</t>
-  </si>
-  <si>
     <t>Richa</t>
   </si>
   <si>
@@ -117,9 +102,6 @@
     <t>985736412015</t>
   </si>
   <si>
-    <t>Nidhi</t>
-  </si>
-  <si>
     <t>865794325104</t>
   </si>
   <si>
@@ -141,9 +123,6 @@
     <t>Shambhavi</t>
   </si>
   <si>
-    <t>12568</t>
-  </si>
-  <si>
     <t xml:space="preserve">308211521918 </t>
   </si>
   <si>
@@ -207,9 +186,6 @@
     <t>123456743077</t>
   </si>
   <si>
-    <t>1234563427</t>
-  </si>
-  <si>
     <t>123456929012</t>
   </si>
   <si>
@@ -222,10 +198,34 @@
     <t>789129026789</t>
   </si>
   <si>
-    <t>30/05/2023</t>
-  </si>
-  <si>
     <t>31/05/2023</t>
+  </si>
+  <si>
+    <t>01/06/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaishnavi </t>
+  </si>
+  <si>
+    <t>8765432198781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anushka </t>
+  </si>
+  <si>
+    <t>8765432198792</t>
+  </si>
+  <si>
+    <t>32456.082</t>
+  </si>
+  <si>
+    <t>12568000000</t>
+  </si>
+  <si>
+    <t>Jonathan Winchester-Campbell-Harriss</t>
+  </si>
+  <si>
+    <t>123456342712</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,255 +565,255 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/backend/clearingfeed/target/classes/archiveFolder/clearingfeed (2).xlsx
+++ b/backend/clearingfeed/target/classes/archiveFolder/clearingfeed (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\citibridge\citibridge\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D81197-5388-4A99-8FBB-7144EE54BC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47766B66-B1CE-4D9D-A7A7-770B56A95653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/backend/clearingfeed/target/classes/archiveFolder/clearingfeed (2).xlsx
+++ b/backend/clearingfeed/target/classes/archiveFolder/clearingfeed (2).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\citibridge\citibridge\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47766B66-B1CE-4D9D-A7A7-770B56A95653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FA6CB4-35C6-41B7-A630-C73AA8907283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,12 +198,6 @@
     <t>789129026789</t>
   </si>
   <si>
-    <t>31/05/2023</t>
-  </si>
-  <si>
-    <t>01/06/2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vaishnavi </t>
   </si>
   <si>
@@ -226,6 +220,12 @@
   </si>
   <si>
     <t>123456342712</t>
+  </si>
+  <si>
+    <t>17/06/2023</t>
+  </si>
+  <si>
+    <t>19/07/2023</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -568,16 +568,16 @@
         <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -614,7 +614,7 @@
         <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -637,7 +637,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -660,7 +660,7 @@
         <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -675,7 +675,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -683,7 +683,7 @@
         <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -703,16 +703,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
@@ -728,8 +728,8 @@
       <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>58</v>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -744,15 +744,15 @@
         <v>31</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>58</v>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>32</v>
@@ -774,8 +774,8 @@
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>58</v>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>37</v>
@@ -797,8 +797,8 @@
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>58</v>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>42</v>

--- a/backend/clearingfeed/target/classes/archiveFolder/clearingfeed (2).xlsx
+++ b/backend/clearingfeed/target/classes/archiveFolder/clearingfeed (2).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\citibridge\citibridge\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FA6CB4-35C6-41B7-A630-C73AA8907283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A199D028-9458-4D88-9B04-F51619D67AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -225,7 +225,7 @@
     <t>17/06/2023</t>
   </si>
   <si>
-    <t>19/07/2023</t>
+    <t>03/08/2023</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -729,7 +729,7 @@
         <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -775,7 +775,7 @@
         <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>37</v>
@@ -798,7 +798,7 @@
         <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>42</v>

--- a/backend/clearingfeed/target/classes/archiveFolder/clearingfeed (2).xlsx
+++ b/backend/clearingfeed/target/classes/archiveFolder/clearingfeed (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\citibridge\citibridge\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A199D028-9458-4D88-9B04-F51619D67AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4771ECD4-76B4-4C74-8D67-F8CDD0D6BE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -225,7 +225,7 @@
     <t>17/06/2023</t>
   </si>
   <si>
-    <t>03/08/2023</t>
+    <t>05/08/2023</t>
   </si>
 </sst>
 </file>
@@ -546,10 +546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -818,5 +819,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>